--- a/advanced.xlsx
+++ b/advanced.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="303">
   <si>
     <t>Player</t>
   </si>
@@ -94,709 +94,835 @@
     <t>BPM</t>
   </si>
   <si>
+    <t>Braun Hartfield</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>.516</t>
+  </si>
+  <si>
+    <t>.493</t>
+  </si>
+  <si>
+    <t>.380</t>
+  </si>
+  <si>
+    <t>.352</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>.076</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>-1.2</t>
+  </si>
+  <si>
+    <t>-0.9</t>
+  </si>
+  <si>
+    <t>Cameron Morse</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>.487</t>
+  </si>
+  <si>
+    <t>.458</t>
+  </si>
+  <si>
+    <t>.509</t>
+  </si>
+  <si>
+    <t>.178</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>.073</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-5.3</t>
+  </si>
+  <si>
+    <t>-4.3</t>
+  </si>
+  <si>
+    <t>Tyree Robinson</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>.613</t>
+  </si>
+  <si>
+    <t>.622</t>
+  </si>
+  <si>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>.372</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>.141</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>Garrett Covington</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>.538</t>
+  </si>
+  <si>
+    <t>.505</t>
+  </si>
+  <si>
+    <t>.330</t>
+  </si>
+  <si>
+    <t>.358</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>.064</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-2.9</t>
+  </si>
+  <si>
+    <t>-3.9</t>
+  </si>
+  <si>
+    <t>Jaylen Benton</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>.522</t>
+  </si>
+  <si>
+    <t>.511</t>
+  </si>
+  <si>
+    <t>.484</t>
+  </si>
+  <si>
+    <t>.194</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>.079</t>
+  </si>
+  <si>
+    <t>-3.2</t>
+  </si>
+  <si>
+    <t>-2.4</t>
+  </si>
+  <si>
+    <t>Naz Bohannon</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>.447</t>
+  </si>
+  <si>
+    <t>.425</t>
+  </si>
+  <si>
+    <t>.115</t>
+  </si>
+  <si>
+    <t>.292</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>.037</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>-2.1</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>Devin Haygood</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>.543</t>
+  </si>
+  <si>
+    <t>.542</t>
+  </si>
+  <si>
+    <t>.006</t>
+  </si>
+  <si>
+    <t>.277</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>.047</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-4.2</t>
+  </si>
+  <si>
+    <t>Noe Anabir</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>.558</t>
+  </si>
+  <si>
+    <t>.561</t>
+  </si>
+  <si>
+    <t>.610</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>.049</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>-4.8</t>
+  </si>
+  <si>
+    <t>Michael Akuchie</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>.502</t>
+  </si>
+  <si>
+    <t>.451</t>
+  </si>
+  <si>
+    <t>.641</t>
+  </si>
+  <si>
+    <t>.217</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>.032</t>
+  </si>
+  <si>
+    <t>-3.6</t>
+  </si>
+  <si>
+    <t>-8.4</t>
+  </si>
+  <si>
+    <t>Jacob Brown</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>.440</t>
+  </si>
+  <si>
+    <t>.393</t>
+  </si>
+  <si>
+    <t>.643</t>
+  </si>
+  <si>
+    <t>.286</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-3.4</t>
+  </si>
+  <si>
+    <t>-5.5</t>
+  </si>
+  <si>
     <t>Francisco Santiago</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>.545</t>
-  </si>
-  <si>
-    <t>.523</t>
-  </si>
-  <si>
-    <t>.283</t>
-  </si>
-  <si>
-    <t>.181</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>24.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>.093</t>
-  </si>
-  <si>
-    <t>0.7</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>.468</t>
+  </si>
+  <si>
+    <t>.452</t>
+  </si>
+  <si>
+    <t>.714</t>
+  </si>
+  <si>
+    <t>.143</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>.026</t>
+  </si>
+  <si>
+    <t>-6.1</t>
+  </si>
+  <si>
+    <t>John Kirincic</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>.500</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>.088</t>
+  </si>
+  <si>
+    <t>Dan Ritter</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>.313</t>
+  </si>
+  <si>
+    <t>.625</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>.117</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>Ryan Strollo</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>.419</t>
+  </si>
+  <si>
+    <t>.429</t>
+  </si>
+  <si>
+    <t>.905</t>
+  </si>
+  <si>
+    <t>.048</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>.003</t>
+  </si>
+  <si>
+    <t>-5.7</t>
+  </si>
+  <si>
+    <t>-8.9</t>
+  </si>
+  <si>
+    <t>Jeremiah Ferguson</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>.412</t>
+  </si>
+  <si>
+    <t>.379</t>
+  </si>
+  <si>
+    <t>.318</t>
+  </si>
+  <si>
+    <t>.258</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>-0.2</t>
   </si>
   <si>
     <t>-0.1</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>Cameron Morse</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>.507</t>
-  </si>
-  <si>
-    <t>.475</t>
-  </si>
-  <si>
-    <t>.380</t>
-  </si>
-  <si>
-    <t>.249</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>.085</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>-4.6</t>
-  </si>
-  <si>
-    <t>-2.7</t>
-  </si>
-  <si>
-    <t>Braun Hartfield</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>.527</t>
-  </si>
-  <si>
-    <t>.494</t>
-  </si>
-  <si>
-    <t>.241</t>
-  </si>
-  <si>
-    <t>.384</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>.092</t>
-  </si>
-  <si>
-    <t>-1.1</t>
-  </si>
-  <si>
-    <t>-2.2</t>
-  </si>
-  <si>
-    <t>Jorden Kaufman</t>
-  </si>
-  <si>
-    <t>704</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>.557</t>
-  </si>
-  <si>
-    <t>.565</t>
-  </si>
-  <si>
-    <t>.000</t>
-  </si>
-  <si>
-    <t>.243</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>.100</t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>Matt Donlan</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>.529</t>
-  </si>
-  <si>
-    <t>.495</t>
-  </si>
-  <si>
-    <t>.642</t>
-  </si>
-  <si>
-    <t>.190</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>.065</t>
-  </si>
-  <si>
-    <t>-2.6</t>
-  </si>
-  <si>
-    <t>-2.8</t>
-  </si>
-  <si>
-    <t>Devin Haygood</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>.553</t>
-  </si>
-  <si>
-    <t>.587</t>
-  </si>
-  <si>
-    <t>.533</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>12.8</t>
+    <t>-.009</t>
+  </si>
+  <si>
+    <t>-4.4</t>
+  </si>
+  <si>
+    <t>-9.9</t>
+  </si>
+  <si>
+    <t>Alex Wilbourn</t>
+  </si>
+  <si>
+    <t>-10.6</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>10.2</t>
   </si>
   <si>
     <t>7.6</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>.072</t>
-  </si>
-  <si>
-    <t>Brett Frantz</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>.482</t>
-  </si>
-  <si>
-    <t>.438</t>
-  </si>
-  <si>
-    <t>.655</t>
-  </si>
-  <si>
-    <t>.226</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>.020</t>
-  </si>
-  <si>
-    <t>-2.4</t>
-  </si>
-  <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>Latin Davis</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>.471</t>
-  </si>
-  <si>
-    <t>.422</t>
-  </si>
-  <si>
-    <t>.265</t>
-  </si>
-  <si>
-    <t>.289</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>.024</t>
-  </si>
-  <si>
-    <t>-4.2</t>
-  </si>
-  <si>
-    <t>-5.8</t>
-  </si>
-  <si>
-    <t>Jeremiah Ferguson</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>.544</t>
-  </si>
-  <si>
-    <t>.550</t>
-  </si>
-  <si>
-    <t>.300</t>
-  </si>
-  <si>
-    <t>.700</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>.039</t>
-  </si>
-  <si>
-    <t>-3.9</t>
-  </si>
-  <si>
-    <t>-1.3</t>
-  </si>
-  <si>
-    <t>-5.3</t>
-  </si>
-  <si>
-    <t>Stefan Rosic</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>.424</t>
-  </si>
-  <si>
-    <t>.397</t>
-  </si>
-  <si>
-    <t>.517</t>
-  </si>
-  <si>
-    <t>.207</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>-.019</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>-3.8</t>
-  </si>
-  <si>
-    <t>-9.8</t>
-  </si>
-  <si>
-    <t>Ryan Strollo</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>.046</t>
-  </si>
-  <si>
-    <t>-3.5</t>
-  </si>
-  <si>
-    <t>-3.4</t>
-  </si>
-  <si>
-    <t>Tyler Warford</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>.750</t>
-  </si>
-  <si>
-    <t>.500</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>.152</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>Rahim Williams</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>.356</t>
-  </si>
-  <si>
-    <t>.329</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>22.9</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>-.012</t>
-  </si>
-  <si>
-    <t>-6.2</t>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>-.261</t>
+  </si>
+  <si>
+    <t>-17.7</t>
+  </si>
+  <si>
+    <t>-18.7</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,90 +1431,90 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>67</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
         <v>68</v>
       </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>69</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
         <v>70</v>
       </c>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
         <v>71</v>
       </c>
-      <c r="X3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -1418,772 +1544,772 @@
         <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
         <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U4" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X4" t="s">
         <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="AA4" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S5" t="s">
         <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X5" t="s">
         <v>44</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AA5" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R6" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="S6" t="s">
         <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="U6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="X6" t="s">
         <v>44</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="Z6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
         <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="W7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X7" t="s">
         <v>44</v>
       </c>
       <c r="Y7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="Z7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AA7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N8" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="Q8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="S8" t="s">
         <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="V8" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="W8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X8" t="s">
         <v>44</v>
       </c>
       <c r="Y8" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="Z8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AA8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="Q9" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="S9" t="s">
         <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="U9" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="V9" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="W9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="X9" t="s">
         <v>44</v>
       </c>
       <c r="Y9" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Z9" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="AA9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R10" t="s">
+        <v>202</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="U10" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z10" t="s">
         <v>187</v>
       </c>
-      <c r="G10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>192</v>
-      </c>
-      <c r="M10" t="s">
-        <v>193</v>
-      </c>
-      <c r="N10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O10" t="s">
-        <v>195</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>196</v>
-      </c>
-      <c r="R10" t="s">
-        <v>197</v>
-      </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" t="s">
-        <v>198</v>
-      </c>
-      <c r="V10" t="s">
-        <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
-      </c>
-      <c r="X10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>201</v>
-      </c>
       <c r="AA10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="N11" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="Q11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="R11" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
         <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
         <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="W11" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="X11" t="s">
         <v>44</v>
       </c>
       <c r="Y11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Z11" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s">
         <v>219</v>
       </c>
-      <c r="B12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="L12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" t="s">
+        <v>231</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>232</v>
+      </c>
+      <c r="R12" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
         <v>184</v>
       </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" t="s">
-        <v>224</v>
-      </c>
-      <c r="N12" t="s">
-        <v>225</v>
-      </c>
-      <c r="O12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>227</v>
-      </c>
-      <c r="R12" t="s">
-        <v>228</v>
-      </c>
-      <c r="S12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
-        <v>44</v>
-      </c>
       <c r="W12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="X12" t="s">
         <v>44</v>
       </c>
       <c r="Y12" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="L13" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="R13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S13" t="s">
         <v>44</v>
@@ -2198,30 +2324,30 @@
         <v>44</v>
       </c>
       <c r="W13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X13" t="s">
         <v>44</v>
       </c>
       <c r="Y13" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="Z13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA13" t="s">
         <v>69</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
         <v>246</v>
@@ -2230,70 +2356,319 @@
         <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
         <v>250</v>
       </c>
       <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
         <v>251</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>252</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>253</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>254</v>
       </c>
-      <c r="O14" t="s">
-        <v>89</v>
-      </c>
       <c r="P14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>256</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
         <v>257</v>
       </c>
-      <c r="S14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" t="s">
-        <v>258</v>
-      </c>
-      <c r="U14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14" t="s">
-        <v>259</v>
-      </c>
       <c r="X14" t="s">
         <v>44</v>
       </c>
       <c r="Y14" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s">
         <v>258</v>
       </c>
       <c r="AA14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
         <v>260</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" t="s">
+        <v>267</v>
+      </c>
+      <c r="M15" t="s">
+        <v>268</v>
+      </c>
+      <c r="N15" t="s">
+        <v>269</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>267</v>
+      </c>
+      <c r="R15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>271</v>
+      </c>
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>282</v>
+      </c>
+      <c r="M16" t="s">
+        <v>283</v>
+      </c>
+      <c r="N16" t="s">
+        <v>284</v>
+      </c>
+      <c r="O16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" t="s">
+        <v>286</v>
+      </c>
+      <c r="S16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>287</v>
+      </c>
+      <c r="U16" t="s">
+        <v>184</v>
+      </c>
+      <c r="V16" t="s">
+        <v>288</v>
+      </c>
+      <c r="W16" t="s">
+        <v>289</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>294</v>
+      </c>
+      <c r="J17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" t="s">
+        <v>295</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>296</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>298</v>
+      </c>
+      <c r="R17" t="s">
+        <v>299</v>
+      </c>
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>288</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" t="s">
+        <v>288</v>
+      </c>
+      <c r="W17" t="s">
+        <v>300</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
